--- a/1002746_28062016 (1).xlsx
+++ b/1002746_28062016 (1).xlsx
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="112">
   <si>
     <t>Employee ID</t>
   </si>
@@ -1281,9 +1281,190 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="10" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="8" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="22" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection hidden="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="6" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1336,184 +1517,6 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
       <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="9" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="9" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="22" fillId="9" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="10" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="16" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="17" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="15" fontId="8" fillId="7" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="9" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="9" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="8" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="15" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1595,9 +1598,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2101,39 +2101,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:54" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="147"/>
-      <c r="B1" s="154" t="s">
+      <c r="A1" s="134"/>
+      <c r="B1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="155"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="142"/>
     </row>
     <row r="2" spans="1:54" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="148"/>
-      <c r="B2" s="149" t="s">
+      <c r="A2" s="135"/>
+      <c r="B2" s="136" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
+      <c r="C2" s="136"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="136"/>
+      <c r="F2" s="136"/>
       <c r="G2" s="10" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:54" s="24" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="150" t="s">
+      <c r="A3" s="137" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="151"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="151"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="152"/>
+      <c r="B3" s="138"/>
+      <c r="C3" s="138"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="138"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -2183,120 +2183,120 @@
       <c r="BB3" s="23"/>
     </row>
     <row r="4" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="144" t="s">
+      <c r="A4" s="112" t="s">
         <v>53</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="146" t="s">
+      <c r="B4" s="113"/>
+      <c r="C4" s="128" t="s">
         <v>107</v>
       </c>
-      <c r="D4" s="146"/>
-      <c r="E4" s="153" t="s">
+      <c r="D4" s="128"/>
+      <c r="E4" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="153"/>
+      <c r="F4" s="140"/>
       <c r="G4" s="18">
         <v>1002746</v>
       </c>
     </row>
     <row r="5" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="144" t="s">
+      <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="145"/>
-      <c r="C5" s="146" t="s">
+      <c r="B5" s="113"/>
+      <c r="C5" s="128" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="146"/>
-      <c r="E5" s="156" t="s">
+      <c r="D5" s="128"/>
+      <c r="E5" s="116" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="145"/>
+      <c r="F5" s="113"/>
       <c r="G5" s="105" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="6" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="157" t="s">
+      <c r="A6" s="126" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="158"/>
-      <c r="C6" s="146" t="s">
+      <c r="B6" s="127"/>
+      <c r="C6" s="128" t="s">
         <v>103</v>
       </c>
-      <c r="D6" s="146"/>
-      <c r="E6" s="159" t="s">
+      <c r="D6" s="128"/>
+      <c r="E6" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="159"/>
+      <c r="F6" s="129"/>
       <c r="G6" s="105" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="160" t="s">
+      <c r="A7" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="161"/>
-      <c r="C7" s="162" t="s">
+      <c r="B7" s="131"/>
+      <c r="C7" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="163"/>
-      <c r="E7" s="164" t="s">
+      <c r="D7" s="115"/>
+      <c r="E7" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="165"/>
+      <c r="F7" s="133"/>
       <c r="G7" s="105" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="144" t="s">
+      <c r="A8" s="112" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146" t="s">
+      <c r="B8" s="113"/>
+      <c r="C8" s="128" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="146"/>
-      <c r="E8" s="159" t="s">
+      <c r="D8" s="128"/>
+      <c r="E8" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="159"/>
+      <c r="F8" s="129"/>
       <c r="G8" s="105" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:54" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="144" t="s">
+      <c r="A9" s="112" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146" t="s">
+      <c r="B9" s="113"/>
+      <c r="C9" s="128" t="s">
         <v>100</v>
       </c>
-      <c r="D9" s="146"/>
-      <c r="E9" s="156" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="145"/>
+      <c r="F9" s="113"/>
       <c r="G9" s="105" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:54" s="26" customFormat="1" ht="24" x14ac:dyDescent="0.2">
-      <c r="A10" s="144" t="s">
+      <c r="A10" s="112" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="145"/>
-      <c r="C10" s="162" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="114" t="s">
         <v>99</v>
       </c>
-      <c r="D10" s="163"/>
-      <c r="E10" s="156" t="s">
+      <c r="D10" s="115"/>
+      <c r="E10" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="145"/>
+      <c r="F10" s="113"/>
       <c r="G10" s="106" t="s">
         <v>39</v>
       </c>
@@ -2349,15 +2349,15 @@
       <c r="BB10" s="25"/>
     </row>
     <row r="11" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="166" t="s">
+      <c r="A11" s="109" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="167"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="168"/>
+      <c r="B11" s="110"/>
+      <c r="C11" s="110"/>
+      <c r="D11" s="110"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
       <c r="H11" s="23"/>
       <c r="I11" s="23"/>
       <c r="J11" s="23"/>
@@ -2410,10 +2410,10 @@
       <c r="A12" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="139" t="s">
+      <c r="B12" s="146" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="139"/>
+      <c r="C12" s="146"/>
       <c r="D12" s="89" t="s">
         <v>19</v>
       </c>
@@ -2478,10 +2478,10 @@
       <c r="A13" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="140" t="s">
+      <c r="B13" s="125" t="s">
         <v>108</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="125"/>
       <c r="D13" s="97">
         <v>8</v>
       </c>
@@ -2542,8 +2542,8 @@
     </row>
     <row r="14" spans="1:54" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="91"/>
-      <c r="B14" s="140"/>
-      <c r="C14" s="140"/>
+      <c r="B14" s="125"/>
+      <c r="C14" s="125"/>
       <c r="D14" s="97"/>
       <c r="E14" s="91"/>
       <c r="F14" s="92"/>
@@ -2598,8 +2598,8 @@
     </row>
     <row r="15" spans="1:54" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="91"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
       <c r="D15" s="97"/>
       <c r="E15" s="91"/>
       <c r="F15" s="92"/>
@@ -2654,8 +2654,8 @@
     </row>
     <row r="16" spans="1:54" s="46" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="91"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
+      <c r="B16" s="125"/>
+      <c r="C16" s="125"/>
       <c r="D16" s="97"/>
       <c r="E16" s="91"/>
       <c r="F16" s="92"/>
@@ -2710,8 +2710,8 @@
     </row>
     <row r="17" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="91"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
+      <c r="B17" s="125"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="104"/>
       <c r="E17" s="96"/>
       <c r="F17" s="92"/>
@@ -2766,8 +2766,8 @@
     </row>
     <row r="18" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="91"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
       <c r="D18" s="104"/>
       <c r="E18" s="96"/>
       <c r="F18" s="92"/>
@@ -2822,8 +2822,8 @@
     </row>
     <row r="19" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="91"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
+      <c r="B19" s="125"/>
+      <c r="C19" s="125"/>
       <c r="D19" s="104"/>
       <c r="E19" s="96"/>
       <c r="F19" s="92"/>
@@ -2878,8 +2878,8 @@
     </row>
     <row r="20" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="91"/>
-      <c r="B20" s="140"/>
-      <c r="C20" s="140"/>
+      <c r="B20" s="125"/>
+      <c r="C20" s="125"/>
       <c r="D20" s="104"/>
       <c r="E20" s="96"/>
       <c r="F20" s="92"/>
@@ -2934,8 +2934,8 @@
     </row>
     <row r="21" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="91"/>
-      <c r="B21" s="140"/>
-      <c r="C21" s="140"/>
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
       <c r="D21" s="104"/>
       <c r="E21" s="96"/>
       <c r="F21" s="92"/>
@@ -2990,8 +2990,8 @@
     </row>
     <row r="22" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="91"/>
-      <c r="B22" s="140"/>
-      <c r="C22" s="140"/>
+      <c r="B22" s="125"/>
+      <c r="C22" s="125"/>
       <c r="D22" s="104"/>
       <c r="E22" s="96"/>
       <c r="F22" s="92"/>
@@ -3045,13 +3045,13 @@
       <c r="BB22" s="23"/>
     </row>
     <row r="23" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="112" t="s">
+      <c r="A23" s="165" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
-      <c r="D23" s="113"/>
-      <c r="E23" s="113"/>
+      <c r="B23" s="166"/>
+      <c r="C23" s="166"/>
+      <c r="D23" s="166"/>
+      <c r="E23" s="166"/>
       <c r="F23" s="84">
         <f>SUM(F13:F22)</f>
         <v>5820</v>
@@ -3109,13 +3109,13 @@
       <c r="BB23" s="23"/>
     </row>
     <row r="24" spans="1:54" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="119" t="s">
+      <c r="A24" s="172" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="120"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="121"/>
+      <c r="B24" s="173"/>
+      <c r="C24" s="173"/>
+      <c r="D24" s="173"/>
+      <c r="E24" s="174"/>
       <c r="F24" s="86" t="s">
         <v>5</v>
       </c>
@@ -3124,11 +3124,11 @@
       </c>
     </row>
     <row r="25" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="122"/>
-      <c r="B25" s="123"/>
-      <c r="C25" s="123"/>
-      <c r="D25" s="123"/>
-      <c r="E25" s="123"/>
+      <c r="A25" s="119"/>
+      <c r="B25" s="120"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
       <c r="F25" s="96"/>
       <c r="G25" s="93"/>
       <c r="H25" s="23"/>
@@ -3180,11 +3180,11 @@
       <c r="BB25" s="23"/>
     </row>
     <row r="26" spans="1:54" s="24" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="122"/>
-      <c r="B26" s="123"/>
-      <c r="C26" s="123"/>
-      <c r="D26" s="123"/>
-      <c r="E26" s="123"/>
+      <c r="A26" s="119"/>
+      <c r="B26" s="120"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
       <c r="F26" s="96"/>
       <c r="G26" s="93"/>
       <c r="H26" s="23"/>
@@ -3236,13 +3236,13 @@
       <c r="BB26" s="23"/>
     </row>
     <row r="27" spans="1:54" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="172"/>
+      <c r="B27" s="122"/>
+      <c r="C27" s="122"/>
+      <c r="D27" s="122"/>
+      <c r="E27" s="122"/>
       <c r="F27" s="80"/>
       <c r="G27" s="81">
         <f>SUM(G25:G26)</f>
@@ -3296,11 +3296,11 @@
       <c r="BA27" s="29"/>
     </row>
     <row r="28" spans="1:54" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="114"/>
-      <c r="B28" s="115"/>
-      <c r="C28" s="115"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="115"/>
+      <c r="A28" s="167"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
       <c r="F28" s="82" t="s">
         <v>29</v>
       </c>
@@ -3355,13 +3355,13 @@
       <c r="BA28" s="29"/>
     </row>
     <row r="29" spans="1:54" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="171" t="s">
+      <c r="A29" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B29" s="172"/>
-      <c r="C29" s="172"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="172"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
+      <c r="D29" s="122"/>
+      <c r="E29" s="122"/>
       <c r="F29" s="80">
         <f>F23-G27</f>
         <v>5820</v>
@@ -3418,15 +3418,15 @@
       <c r="BA29" s="29"/>
     </row>
     <row r="30" spans="1:54" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116" t="s">
+      <c r="A30" s="169" t="s">
         <v>47</v>
       </c>
-      <c r="B30" s="117"/>
-      <c r="C30" s="117"/>
-      <c r="D30" s="117"/>
-      <c r="E30" s="117"/>
-      <c r="F30" s="117"/>
-      <c r="G30" s="118"/>
+      <c r="B30" s="170"/>
+      <c r="C30" s="170"/>
+      <c r="D30" s="170"/>
+      <c r="E30" s="170"/>
+      <c r="F30" s="170"/>
+      <c r="G30" s="171"/>
       <c r="H30" s="29"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
@@ -3475,15 +3475,15 @@
       <c r="BA30" s="29"/>
     </row>
     <row r="31" spans="1:54" s="30" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="109" t="s">
+      <c r="A31" s="162" t="s">
         <v>48</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="111"/>
+      <c r="B31" s="163"/>
+      <c r="C31" s="163"/>
+      <c r="D31" s="163"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="163"/>
+      <c r="G31" s="164"/>
       <c r="H31" s="29"/>
       <c r="I31" s="29"/>
       <c r="J31" s="29"/>
@@ -3535,12 +3535,12 @@
       <c r="A32" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="173" t="s">
+      <c r="B32" s="123" t="s">
         <v>32</v>
       </c>
-      <c r="C32" s="173"/>
-      <c r="D32" s="173"/>
-      <c r="E32" s="173"/>
+      <c r="C32" s="123"/>
+      <c r="D32" s="123"/>
+      <c r="E32" s="123"/>
       <c r="F32" s="32" t="s">
         <v>33</v>
       </c>
@@ -3598,12 +3598,12 @@
       <c r="A33" s="98">
         <v>1</v>
       </c>
-      <c r="B33" s="108" t="s">
+      <c r="B33" s="124" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="108"/>
-      <c r="D33" s="108"/>
-      <c r="E33" s="108"/>
+      <c r="C33" s="124"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="124"/>
       <c r="F33" s="47"/>
       <c r="G33" s="48"/>
       <c r="H33" s="49"/>
@@ -3657,12 +3657,12 @@
       <c r="A34" s="98">
         <v>2</v>
       </c>
-      <c r="B34" s="108" t="s">
+      <c r="B34" s="124" t="s">
         <v>98</v>
       </c>
-      <c r="C34" s="108"/>
-      <c r="D34" s="108"/>
-      <c r="E34" s="108"/>
+      <c r="C34" s="124"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="124"/>
       <c r="F34" s="47"/>
       <c r="G34" s="48"/>
       <c r="H34" s="49"/>
@@ -3716,12 +3716,12 @@
       <c r="A35" s="98">
         <v>3</v>
       </c>
-      <c r="B35" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="108"/>
-      <c r="D35" s="108"/>
-      <c r="E35" s="108"/>
+      <c r="B35" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="124"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="124"/>
       <c r="F35" s="47"/>
       <c r="G35" s="48"/>
       <c r="H35" s="49"/>
@@ -3775,12 +3775,12 @@
       <c r="A36" s="98">
         <v>4</v>
       </c>
-      <c r="B36" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="108"/>
-      <c r="D36" s="108"/>
-      <c r="E36" s="108"/>
+      <c r="B36" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="124"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="124"/>
       <c r="F36" s="47"/>
       <c r="G36" s="48"/>
       <c r="H36" s="49"/>
@@ -3834,12 +3834,12 @@
       <c r="A37" s="98">
         <v>5</v>
       </c>
-      <c r="B37" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="108"/>
-      <c r="E37" s="108"/>
+      <c r="B37" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="124"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="124"/>
       <c r="F37" s="47"/>
       <c r="G37" s="48"/>
       <c r="H37" s="49"/>
@@ -3893,12 +3893,12 @@
       <c r="A38" s="98">
         <v>6</v>
       </c>
-      <c r="B38" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="108"/>
-      <c r="D38" s="108"/>
-      <c r="E38" s="108"/>
+      <c r="B38" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
       <c r="F38" s="47"/>
       <c r="G38" s="48"/>
       <c r="H38" s="49"/>
@@ -3952,12 +3952,12 @@
       <c r="A39" s="98">
         <v>7</v>
       </c>
-      <c r="B39" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C39" s="108"/>
-      <c r="D39" s="108"/>
-      <c r="E39" s="108"/>
+      <c r="B39" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
       <c r="F39" s="47"/>
       <c r="G39" s="48"/>
       <c r="H39" s="49"/>
@@ -4011,12 +4011,12 @@
       <c r="A40" s="98">
         <v>8</v>
       </c>
-      <c r="B40" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C40" s="108"/>
-      <c r="D40" s="108"/>
-      <c r="E40" s="108"/>
+      <c r="B40" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
       <c r="F40" s="47"/>
       <c r="G40" s="48"/>
       <c r="H40" s="49"/>
@@ -4070,12 +4070,12 @@
       <c r="A41" s="98">
         <v>9</v>
       </c>
-      <c r="B41" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="108"/>
-      <c r="D41" s="108"/>
-      <c r="E41" s="108"/>
+      <c r="B41" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
       <c r="F41" s="47"/>
       <c r="G41" s="48"/>
       <c r="H41" s="49"/>
@@ -4129,12 +4129,12 @@
       <c r="A42" s="98">
         <v>10</v>
       </c>
-      <c r="B42" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="108"/>
-      <c r="D42" s="108"/>
-      <c r="E42" s="108"/>
+      <c r="B42" s="124" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
       <c r="F42" s="51"/>
       <c r="G42" s="48"/>
       <c r="H42" s="49"/>
@@ -4185,17 +4185,17 @@
       <c r="BA42" s="49"/>
     </row>
     <row r="43" spans="1:54" s="24" customFormat="1" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="127" t="s">
+      <c r="A43" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="B43" s="128"/>
-      <c r="C43" s="128"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="129"/>
-      <c r="F43" s="169" t="s">
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="154"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="G43" s="170"/>
+      <c r="G43" s="118"/>
       <c r="H43" s="23"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -4245,17 +4245,17 @@
       <c r="BB43" s="23"/>
     </row>
     <row r="44" spans="1:54" s="24" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="159" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134" t="s">
+      <c r="B44" s="160"/>
+      <c r="C44" s="160"/>
+      <c r="D44" s="160"/>
+      <c r="E44" s="160"/>
+      <c r="F44" s="160" t="s">
         <v>23</v>
       </c>
-      <c r="G44" s="135"/>
+      <c r="G44" s="161"/>
       <c r="H44" s="23"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
@@ -4305,54 +4305,54 @@
       <c r="BB44" s="23"/>
     </row>
     <row r="45" spans="1:54" s="23" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="141" t="s">
+      <c r="A45" s="147" t="s">
         <v>13</v>
       </c>
-      <c r="B45" s="142"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142" t="s">
+      <c r="B45" s="148"/>
+      <c r="C45" s="148"/>
+      <c r="D45" s="148"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="148" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="143"/>
+      <c r="G45" s="149"/>
     </row>
     <row r="46" spans="1:54" s="23" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="130" t="s">
+      <c r="A46" s="156" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="131"/>
-      <c r="C46" s="131"/>
-      <c r="D46" s="131"/>
-      <c r="E46" s="131"/>
-      <c r="F46" s="131" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="132"/>
+      <c r="G46" s="158"/>
     </row>
     <row r="47" spans="1:54" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="124" t="s">
+      <c r="A47" s="150" t="s">
         <v>11</v>
       </c>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="126"/>
+      <c r="B47" s="151"/>
+      <c r="C47" s="151"/>
+      <c r="D47" s="151"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="151"/>
+      <c r="G47" s="152"/>
     </row>
     <row r="48" spans="1:54" s="21" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="136" t="s">
+      <c r="A48" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="B48" s="137"/>
-      <c r="C48" s="137"/>
-      <c r="D48" s="137" t="s">
+      <c r="B48" s="144"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144" t="s">
         <v>86</v>
       </c>
-      <c r="E48" s="137"/>
-      <c r="F48" s="137"/>
-      <c r="G48" s="138"/>
+      <c r="E48" s="144"/>
+      <c r="F48" s="144"/>
+      <c r="G48" s="145"/>
     </row>
     <row r="49" spans="1:3" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A49" s="33"/>
@@ -11298,6 +11298,58 @@
   <sheetProtection password="CC47" sheet="1" objects="1" scenarios="1"/>
   <dataConsolidate/>
   <mergeCells count="68">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A47:G47"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:G48"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:D10"/>
@@ -11314,58 +11366,6 @@
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:G48"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="A47:G47"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
   </mergeCells>
   <dataValidations xWindow="789" yWindow="309" count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:D9">
@@ -11414,7 +11414,7 @@
       <pane xSplit="3" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11434,17 +11434,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:98" s="2" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="177"/>
-      <c r="B1" s="178"/>
-      <c r="C1" s="154" t="s">
+      <c r="A1" s="178"/>
+      <c r="B1" s="179"/>
+      <c r="C1" s="141" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
       <c r="J1" s="9"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -11536,17 +11536,17 @@
       <c r="CT1" s="1"/>
     </row>
     <row r="2" spans="1:98" s="2" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="179"/>
-      <c r="B2" s="180"/>
-      <c r="C2" s="181" t="s">
+      <c r="A2" s="180"/>
+      <c r="B2" s="181"/>
+      <c r="C2" s="182" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="181"/>
-      <c r="E2" s="181"/>
-      <c r="F2" s="181"/>
-      <c r="G2" s="181"/>
-      <c r="H2" s="181"/>
-      <c r="I2" s="181"/>
+      <c r="D2" s="182"/>
+      <c r="E2" s="182"/>
+      <c r="F2" s="182"/>
+      <c r="G2" s="182"/>
+      <c r="H2" s="182"/>
+      <c r="I2" s="182"/>
       <c r="J2" s="10" t="s">
         <v>87</v>
       </c>
@@ -11640,18 +11640,18 @@
       <c r="CT2" s="1"/>
     </row>
     <row r="3" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="174" t="s">
+      <c r="A3" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="B3" s="175"/>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="175"/>
-      <c r="F3" s="175"/>
-      <c r="G3" s="175"/>
-      <c r="H3" s="175"/>
-      <c r="I3" s="175"/>
-      <c r="J3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="177"/>
     </row>
     <row r="4" spans="1:98" s="6" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="78" t="s">
@@ -11960,7 +11960,7 @@
       <c r="B11" s="101">
         <v>1004050</v>
       </c>
-      <c r="C11" s="200" t="s">
+      <c r="C11" s="108" t="s">
         <v>109</v>
       </c>
       <c r="D11" s="100" t="s">
@@ -12008,9 +12008,7 @@
       <c r="H12" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="I12" s="103" t="s">
-        <v>96</v>
-      </c>
+      <c r="I12" s="103"/>
       <c r="J12" s="102"/>
     </row>
     <row r="13" spans="1:98" x14ac:dyDescent="0.2">
@@ -13758,20 +13756,20 @@
       <c r="J100" s="102"/>
     </row>
     <row r="101" spans="1:10" s="76" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="182" t="s">
+      <c r="A101" s="183" t="s">
         <v>85</v>
       </c>
-      <c r="B101" s="183"/>
-      <c r="C101" s="183"/>
-      <c r="D101" s="183" t="s">
+      <c r="B101" s="184"/>
+      <c r="C101" s="184"/>
+      <c r="D101" s="184" t="s">
         <v>86</v>
       </c>
-      <c r="E101" s="183"/>
-      <c r="F101" s="183"/>
-      <c r="G101" s="183"/>
-      <c r="H101" s="183"/>
-      <c r="I101" s="183"/>
-      <c r="J101" s="184"/>
+      <c r="E101" s="184"/>
+      <c r="F101" s="184"/>
+      <c r="G101" s="184"/>
+      <c r="H101" s="184"/>
+      <c r="I101" s="184"/>
+      <c r="J101" s="185"/>
     </row>
     <row r="102" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
@@ -22112,54 +22110,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="185" t="s">
+      <c r="A1" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="154"/>
-      <c r="C1" s="154"/>
-      <c r="D1" s="154"/>
-      <c r="E1" s="154"/>
-      <c r="F1" s="154"/>
-      <c r="G1" s="154"/>
-      <c r="H1" s="154"/>
-      <c r="I1" s="154"/>
-      <c r="J1" s="155"/>
+      <c r="B1" s="141"/>
+      <c r="C1" s="141"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="141"/>
+      <c r="F1" s="141"/>
+      <c r="G1" s="141"/>
+      <c r="H1" s="141"/>
+      <c r="I1" s="141"/>
+      <c r="J1" s="142"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="196" t="s">
+      <c r="A2" s="197" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="197" t="s">
+      <c r="B2" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="197" t="s">
+      <c r="C2" s="198" t="s">
         <v>82</v>
       </c>
-      <c r="D2" s="198" t="s">
+      <c r="D2" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="197" t="s">
+      <c r="E2" s="198" t="s">
         <v>81</v>
       </c>
-      <c r="F2" s="197" t="s">
+      <c r="F2" s="198" t="s">
         <v>54</v>
       </c>
-      <c r="G2" s="197" t="s">
+      <c r="G2" s="198" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="197"/>
-      <c r="I2" s="197"/>
-      <c r="J2" s="190" t="s">
+      <c r="H2" s="198"/>
+      <c r="I2" s="198"/>
+      <c r="J2" s="191" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="196"/>
-      <c r="B3" s="197"/>
-      <c r="C3" s="197"/>
-      <c r="D3" s="198"/>
-      <c r="E3" s="197"/>
-      <c r="F3" s="197"/>
+      <c r="A3" s="197"/>
+      <c r="B3" s="198"/>
+      <c r="C3" s="198"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
       <c r="G3" s="13" t="s">
         <v>57</v>
       </c>
@@ -22169,10 +22167,10 @@
       <c r="I3" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="190"/>
+      <c r="J3" s="191"/>
     </row>
     <row r="4" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A4" s="191">
+      <c r="A4" s="192">
         <v>1</v>
       </c>
       <c r="B4" s="35" t="s">
@@ -22191,7 +22189,7 @@
       <c r="J4" s="57"/>
     </row>
     <row r="5" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A5" s="191"/>
+      <c r="A5" s="192"/>
       <c r="B5" s="38" t="s">
         <v>0</v>
       </c>
@@ -22208,7 +22206,7 @@
       <c r="J5" s="57"/>
     </row>
     <row r="6" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A6" s="191"/>
+      <c r="A6" s="192"/>
       <c r="B6" s="35" t="s">
         <v>1</v>
       </c>
@@ -22225,7 +22223,7 @@
       <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="191"/>
+      <c r="A7" s="192"/>
       <c r="B7" s="35" t="s">
         <v>2</v>
       </c>
@@ -22242,7 +22240,7 @@
       <c r="J7" s="57"/>
     </row>
     <row r="8" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="191"/>
+      <c r="A8" s="192"/>
       <c r="B8" s="36" t="s">
         <v>7</v>
       </c>
@@ -22259,7 +22257,7 @@
       <c r="J8" s="57"/>
     </row>
     <row r="9" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="191"/>
+      <c r="A9" s="192"/>
       <c r="B9" s="37" t="s">
         <v>8</v>
       </c>
@@ -22276,7 +22274,7 @@
       <c r="J9" s="57"/>
     </row>
     <row r="10" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="191"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="37" t="s">
         <v>37</v>
       </c>
@@ -22293,7 +22291,7 @@
       <c r="J10" s="57"/>
     </row>
     <row r="11" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="191"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="36" t="s">
         <v>36</v>
       </c>
@@ -22310,7 +22308,7 @@
       <c r="J11" s="57"/>
     </row>
     <row r="12" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A12" s="191"/>
+      <c r="A12" s="192"/>
       <c r="B12" s="35" t="s">
         <v>9</v>
       </c>
@@ -22327,7 +22325,7 @@
       <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A13" s="191"/>
+      <c r="A13" s="192"/>
       <c r="B13" s="35" t="s">
         <v>68</v>
       </c>
@@ -22358,7 +22356,7 @@
       <c r="J13" s="69"/>
     </row>
     <row r="14" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A14" s="191"/>
+      <c r="A14" s="192"/>
       <c r="B14" s="70" t="s">
         <v>61</v>
       </c>
@@ -22367,17 +22365,17 @@
         <v>Lunch</v>
       </c>
       <c r="D14" s="53"/>
-      <c r="E14" s="186" t="s">
+      <c r="E14" s="187" t="s">
         <v>4</v>
       </c>
-      <c r="F14" s="187"/>
-      <c r="G14" s="195"/>
-      <c r="H14" s="195"/>
-      <c r="I14" s="195"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="196"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
       <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" s="58" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="191"/>
+      <c r="A15" s="192"/>
       <c r="B15" s="70" t="s">
         <v>59</v>
       </c>
@@ -22385,15 +22383,15 @@
         <v>49</v>
       </c>
       <c r="D15" s="53"/>
-      <c r="E15" s="188"/>
-      <c r="F15" s="189"/>
-      <c r="G15" s="195"/>
-      <c r="H15" s="195"/>
-      <c r="I15" s="195"/>
+      <c r="E15" s="189"/>
+      <c r="F15" s="190"/>
+      <c r="G15" s="196"/>
+      <c r="H15" s="196"/>
+      <c r="I15" s="196"/>
       <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10" s="58" customFormat="1" ht="12.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="192"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="72" t="s">
         <v>84</v>
       </c>
@@ -22402,16 +22400,16 @@
         <v>Nageshwara Gaddam</v>
       </c>
       <c r="D16" s="74"/>
-      <c r="E16" s="193" t="s">
+      <c r="E16" s="194" t="s">
         <v>63</v>
       </c>
-      <c r="F16" s="193"/>
-      <c r="G16" s="194">
+      <c r="F16" s="194"/>
+      <c r="G16" s="195">
         <f>G13-G14</f>
         <v>0</v>
       </c>
-      <c r="H16" s="194"/>
-      <c r="I16" s="194"/>
+      <c r="H16" s="195"/>
+      <c r="I16" s="195"/>
       <c r="J16" s="75"/>
     </row>
   </sheetData>
@@ -22468,27 +22466,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="199" t="s">
+      <c r="A1" s="200" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="199"/>
-      <c r="C1" s="199"/>
-      <c r="D1" s="199"/>
-      <c r="E1" s="199"/>
-      <c r="F1" s="199"/>
-      <c r="G1" s="199"/>
-      <c r="H1" s="199"/>
-      <c r="I1" s="199"/>
-      <c r="J1" s="199"/>
-      <c r="K1" s="199"/>
-      <c r="L1" s="199"/>
-      <c r="M1" s="199"/>
-      <c r="N1" s="199"/>
-      <c r="O1" s="199"/>
-      <c r="P1" s="199"/>
-      <c r="Q1" s="199"/>
-      <c r="R1" s="199"/>
-      <c r="S1" s="199"/>
+      <c r="B1" s="200"/>
+      <c r="C1" s="200"/>
+      <c r="D1" s="200"/>
+      <c r="E1" s="200"/>
+      <c r="F1" s="200"/>
+      <c r="G1" s="200"/>
+      <c r="H1" s="200"/>
+      <c r="I1" s="200"/>
+      <c r="J1" s="200"/>
+      <c r="K1" s="200"/>
+      <c r="L1" s="200"/>
+      <c r="M1" s="200"/>
+      <c r="N1" s="200"/>
+      <c r="O1" s="200"/>
+      <c r="P1" s="200"/>
+      <c r="Q1" s="200"/>
+      <c r="R1" s="200"/>
+      <c r="S1" s="200"/>
     </row>
     <row r="2" spans="1:19" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
@@ -22669,12 +22667,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <DocumentType xmlns="aae90b04-5bf3-485b-b79e-7c30b33593b7">TEMPLATES</DocumentType>
+    <OrderNo xmlns="aae90b04-5bf3-485b-b79e-7c30b33593b7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22826,18 +22824,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <DocumentType xmlns="aae90b04-5bf3-485b-b79e-7c30b33593b7">TEMPLATES</DocumentType>
-    <OrderNo xmlns="aae90b04-5bf3-485b-b79e-7c30b33593b7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529818C5-314D-416F-B09B-C5C28358226A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E58FC508-A2D4-4778-B3E7-DE40DD940042}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="aae90b04-5bf3-485b-b79e-7c30b33593b7"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -22861,17 +22867,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E58FC508-A2D4-4778-B3E7-DE40DD940042}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{529818C5-314D-416F-B09B-C5C28358226A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="aae90b04-5bf3-485b-b79e-7c30b33593b7"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>